--- a/results/I3_N5_M3_T30_C100_DepLowerLeft_s4_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepLowerLeft_s4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>885.4081981698322</v>
+        <v>455.8781981698167</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.609999895095825</v>
+        <v>1.727999925613403</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.561089363233252</v>
+        <v>5.542561501688547</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.561089363233252</v>
+        <v>5.542561501688547</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>685.4400000000154</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>154.0900000000001</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,12 +584,34 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -645,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -700,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -711,7 +733,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -769,7 +791,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -780,7 +802,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -885,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>25.33845519167733</v>
       </c>
     </row>
     <row r="4">
@@ -893,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -917,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>26.65075183719856</v>
       </c>
     </row>
     <row r="8">
@@ -955,7 +977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -987,15 +1009,43 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1098,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000001</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1109,7 +1159,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000001</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1120,7 +1170,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.6650000000001</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1131,7 +1181,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000001</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1142,7 +1192,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60499999999949</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -1153,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>76.51000000000064</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
@@ -1164,7 +1214,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>75.92500000000067</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
@@ -1175,7 +1225,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>89.27500000000066</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15">
@@ -1186,7 +1236,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>86.56500000000065</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
@@ -1197,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>78.53000000000065</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17">
@@ -1208,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>52.09500000000072</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -1219,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>53.22500000000073</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
@@ -1230,7 +1280,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>52.15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -1241,7 +1291,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>49.64500000000073</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
@@ -1252,7 +1302,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>48.49500000000073</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1263,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>135.9799999999996</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
@@ -1274,7 +1324,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>143.4300000000003</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
@@ -1285,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>148.2900000000027</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25">
@@ -1296,7 +1346,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>153.45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26">
@@ -1307,7 +1357,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>147.0200000000004</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27">
@@ -1318,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>114.5800000000012</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
@@ -1329,7 +1379,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>120.9899999999999</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
@@ -1340,7 +1390,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>122.6550000000011</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30">
@@ -1351,7 +1401,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>118.7050000000006</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
@@ -1362,7 +1412,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>114.9450000000007</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32">
@@ -1373,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>135.9799999999996</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33">
@@ -1384,7 +1434,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>143.4300000000003</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34">
@@ -1395,7 +1445,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>148.2900000000027</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35">
@@ -1406,7 +1456,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>153.45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36">
@@ -1417,7 +1467,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>147.0200000000004</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37">
@@ -1428,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>107.9950000000008</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38">
@@ -1439,7 +1489,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>105.5100000000002</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39">
@@ -1450,7 +1500,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>104.6650000000009</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40">
@@ -1461,7 +1511,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>104.5049999999992</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41">
@@ -1472,7 +1522,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>96.60499999999956</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42">
@@ -1483,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>114.5800000000017</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43">
@@ -1494,7 +1544,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>120.9899999999998</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44">
@@ -1505,7 +1555,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>122.6550000000007</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45">
@@ -1516,7 +1566,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>118.7049999999999</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46">
@@ -1527,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>114.9450000000015</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1574,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>35.97999999999956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1585,7 +1635,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>43.43000000000029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1596,7 +1646,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>48.29000000000269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1607,7 +1657,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>53.44999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1618,7 +1668,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>47.02000000000044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1629,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.9950000000008</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1640,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>5.510000000000218</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -1651,7 +1701,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>4.665000000000873</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -1662,7 +1712,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>4.5049999999992</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -1673,7 +1723,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -1684,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>14.58000000000175</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -1695,7 +1745,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>20.98999999999978</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -1706,7 +1756,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>22.65500000000065</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -1717,7 +1767,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>18.70499999999993</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
@@ -1728,7 +1778,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>14.94500000000153</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1830,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1841,7 +1891,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>7.045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1852,7 +1902,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1863,7 +1913,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1874,7 +1924,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>6.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1885,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1896,7 +1946,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1907,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>4.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1918,7 +1968,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1929,7 +1979,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>7.485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1940,7 +1990,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.005</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1951,7 +2001,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.81</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1962,7 +2012,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1973,7 +2023,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6.325</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1984,7 +2034,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.575</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2053,7 +2103,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2080,7 +2130,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2091,7 +2141,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2102,7 +2152,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2113,7 +2163,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2124,10 +2174,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2135,10 +2185,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2146,10 +2196,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2157,10 +2207,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2168,10 +2218,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2182,53 +2232,9 @@
         <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
         <v>1</v>
       </c>
     </row>
